--- a/crossborder_detailed_PT_ES_2025-04-27.xlsx
+++ b/crossborder_detailed_PT_ES_2025-04-27.xlsx
@@ -8,20 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kenia.silverio\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B719E84-45C7-4A6C-91C5-AD7A63B7E323}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{510DF695-74C9-4000-944C-46D402FB0A0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="PT" sheetId="1" r:id="rId1"/>
     <sheet name="ES" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
   <si>
     <t>PT → ES</t>
   </si>
@@ -33,6 +46,9 @@
   </si>
   <si>
     <t>FR → ES</t>
+  </si>
+  <si>
+    <t>TIME</t>
   </si>
 </sst>
 </file>
@@ -3439,8 +3455,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="S22" sqref="S22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3449,6 +3465,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3730,8 +3749,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q8" sqref="Q8"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3740,6 +3759,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>4</v>
+      </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
